--- a/test.xlsx
+++ b/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
   <si>
     <t>template</t>
   </si>
@@ -28,10 +28,37 @@
     <t>image</t>
   </si>
   <si>
-    <t>帅张</t>
+    <t>帅张一号</t>
   </si>
   <si>
     <t>https://dss1.bdstatic.com/70cFuXSh_Q1YnxGkpoWK1HF6hhy/it/u=3202386446,3057899623&amp;fm=26&amp;gp=0.jpg</t>
+  </si>
+  <si>
+    <t>帅张二号</t>
+  </si>
+  <si>
+    <t>帅张三号</t>
+  </si>
+  <si>
+    <t>帅张四号</t>
+  </si>
+  <si>
+    <t>帅张五号</t>
+  </si>
+  <si>
+    <t>帅张六号</t>
+  </si>
+  <si>
+    <t>帅张七号</t>
+  </si>
+  <si>
+    <t>帅张八号</t>
+  </si>
+  <si>
+    <t>帅张九号</t>
+  </si>
+  <si>
+    <t>帅张十号</t>
   </si>
 </sst>
 </file>
@@ -40,11 +67,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,32 +87,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -96,6 +124,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -105,7 +155,69 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,99 +232,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,181 +253,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,8 +459,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -448,8 +468,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,30 +506,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -533,163 +529,184 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1040,10 +1057,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:D12"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
@@ -1072,12 +1089,12 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>1100</v>
-      </c>
-      <c r="C2" s="2" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1086,12 +1103,12 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>1100</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1100,12 +1117,12 @@
         <v>1</v>
       </c>
       <c r="B4" s="1">
-        <v>1100</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="3" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1114,12 +1131,12 @@
         <v>1</v>
       </c>
       <c r="B5" s="1">
-        <v>1100</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1128,12 +1145,12 @@
         <v>1</v>
       </c>
       <c r="B6" s="1">
-        <v>1100</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1142,12 +1159,12 @@
         <v>1</v>
       </c>
       <c r="B7" s="1">
-        <v>1100</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="3" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1156,12 +1173,12 @@
         <v>1</v>
       </c>
       <c r="B8" s="1">
-        <v>1100</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="3" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1170,12 +1187,12 @@
         <v>1</v>
       </c>
       <c r="B9" s="1">
-        <v>1100</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="3" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1184,12 +1201,12 @@
         <v>1</v>
       </c>
       <c r="B10" s="1">
-        <v>1100</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="3" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1198,26 +1215,12 @@
         <v>1</v>
       </c>
       <c r="B11" s="1">
-        <v>1100</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" s="1">
-        <v>1100</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="3" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1233,7 +1236,6 @@
     <hyperlink ref="D9" r:id="rId1" display="https://dss1.bdstatic.com/70cFuXSh_Q1YnxGkpoWK1HF6hhy/it/u=3202386446,3057899623&amp;fm=26&amp;gp=0.jpg"/>
     <hyperlink ref="D10" r:id="rId1" display="https://dss1.bdstatic.com/70cFuXSh_Q1YnxGkpoWK1HF6hhy/it/u=3202386446,3057899623&amp;fm=26&amp;gp=0.jpg"/>
     <hyperlink ref="D11" r:id="rId1" display="https://dss1.bdstatic.com/70cFuXSh_Q1YnxGkpoWK1HF6hhy/it/u=3202386446,3057899623&amp;fm=26&amp;gp=0.jpg"/>
-    <hyperlink ref="D12" r:id="rId1" display="https://dss1.bdstatic.com/70cFuXSh_Q1YnxGkpoWK1HF6hhy/it/u=3202386446,3057899623&amp;fm=26&amp;gp=0.jpg"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -66,10 +66,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -95,6 +95,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -102,10 +124,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -117,30 +155,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,76 +195,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,8 +209,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,187 +247,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,6 +459,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -475,16 +484,42 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,200 +539,165 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1060,7 +1060,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
@@ -1128,7 +1128,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1">
         <v>1104</v>
@@ -1142,7 +1142,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1">
         <v>1105</v>
@@ -1156,7 +1156,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" s="1">
         <v>1106</v>
@@ -1170,7 +1170,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1">
         <v>1107</v>
@@ -1184,7 +1184,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B9" s="1">
         <v>1108</v>
@@ -1198,7 +1198,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B10" s="1">
         <v>1109</v>
@@ -1212,7 +1212,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B11" s="1">
         <v>1110</v>

--- a/test.xlsx
+++ b/test.xlsx
@@ -28,7 +28,7 @@
     <t>image</t>
   </si>
   <si>
-    <t>帅张一号</t>
+    <t>帅张一号降龙十八掌</t>
   </si>
   <si>
     <t>https://dss1.bdstatic.com/70cFuXSh_Q1YnxGkpoWK1HF6hhy/it/u=3202386446,3057899623&amp;fm=26&amp;gp=0.jpg</t>
@@ -66,12 +66,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,38 +89,32 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -131,9 +125,106 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,91 +239,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,19 +255,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,13 +381,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,73 +423,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,67 +435,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,11 +473,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -477,8 +506,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,189 +553,171 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1060,7 +1071,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D16" sqref="D15:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
@@ -1084,7 +1095,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" ht="41" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1108,7 +1119,7 @@
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1122,7 +1133,7 @@
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1136,7 +1147,7 @@
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1150,7 +1161,7 @@
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1164,7 +1175,7 @@
       <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1178,7 +1189,7 @@
       <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1192,7 +1203,7 @@
       <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1206,7 +1217,7 @@
       <c r="C10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1220,7 +1231,7 @@
       <c r="C11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>5</v>
       </c>
     </row>
